--- a/Modulo4/out/info_partidos/data_Delaware.xlsx
+++ b/Modulo4/out/info_partidos/data_Delaware.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="20">
   <si>
     <t>state</t>
   </si>
@@ -40,15 +40,6 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>letra_inicial</t>
-  </si>
-  <si>
-    <t>FIPStxt</t>
-  </si>
-  <si>
-    <t>PCTPOVALL_2015</t>
-  </si>
-  <si>
     <t>Delaware</t>
   </si>
   <si>
@@ -83,9 +74,6 @@
   </si>
   <si>
     <t>Ted Cruz</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
 </sst>
 </file>
@@ -443,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,69 +462,51 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
       <c r="D2">
         <v>10001</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>4980</v>
       </c>
       <c r="H2">
-        <v>0.399</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2">
-        <v>10001</v>
-      </c>
-      <c r="K2">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>0.3989999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>10001</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
       </c>
       <c r="G3">
         <v>7338</v>
@@ -544,384 +514,285 @@
       <c r="H3">
         <v>0.588</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>10003</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>25738</v>
+      </c>
+      <c r="H4">
+        <v>0.397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>10003</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>38580</v>
+      </c>
+      <c r="H5">
+        <v>0.595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>10005</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>5941</v>
+      </c>
+      <c r="H6">
+        <v>0.364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>10005</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>10032</v>
+      </c>
+      <c r="H7">
+        <v>0.614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
         <v>10001</v>
       </c>
-      <c r="K3">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>8294</v>
+      </c>
+      <c r="H8">
+        <v>0.653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>10001</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>1669</v>
+      </c>
+      <c r="H9">
+        <v>0.131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>10001</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>2324</v>
+      </c>
+      <c r="H10">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>10001</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>8294</v>
-      </c>
-      <c r="H4">
-        <v>0.653</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4">
-        <v>10001</v>
-      </c>
-      <c r="K4">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>10001</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>1669</v>
-      </c>
-      <c r="H5">
-        <v>0.131</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5">
-        <v>10001</v>
-      </c>
-      <c r="K5">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>10001</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6">
-        <v>2324</v>
-      </c>
-      <c r="H6">
-        <v>0.183</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6">
-        <v>10001</v>
-      </c>
-      <c r="K6">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>10003</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7">
-        <v>25738</v>
-      </c>
-      <c r="H7">
-        <v>0.397</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7">
-        <v>10003</v>
-      </c>
-      <c r="K7">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>10003</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8">
-        <v>38580</v>
-      </c>
-      <c r="H8">
-        <v>0.595</v>
-      </c>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8">
-        <v>10003</v>
-      </c>
-      <c r="K8">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>10003</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9">
-        <v>16384</v>
-      </c>
-      <c r="H9">
-        <v>0.51</v>
-      </c>
-      <c r="I9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9">
-        <v>10003</v>
-      </c>
-      <c r="K9">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>10003</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10">
-        <v>8807</v>
-      </c>
-      <c r="H10">
-        <v>0.274</v>
-      </c>
-      <c r="I10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10">
-        <v>10003</v>
-      </c>
-      <c r="K10">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
       </c>
       <c r="D11">
         <v>10003</v>
       </c>
       <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
       <c r="G11">
-        <v>5878</v>
+        <v>16384</v>
       </c>
       <c r="H11">
-        <v>0.183</v>
-      </c>
-      <c r="I11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
         <v>10003</v>
       </c>
-      <c r="K11">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>10005</v>
-      </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12">
-        <v>5941</v>
+        <v>8807</v>
       </c>
       <c r="H12">
-        <v>0.364</v>
-      </c>
-      <c r="I12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12">
-        <v>10005</v>
-      </c>
-      <c r="K12">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0.2739999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
       <c r="D13">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
       </c>
       <c r="G13">
-        <v>10032</v>
+        <v>5878</v>
       </c>
       <c r="H13">
-        <v>0.614</v>
-      </c>
-      <c r="I13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13">
-        <v>10005</v>
-      </c>
-      <c r="K13">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
         <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
       </c>
       <c r="D14">
         <v>10005</v>
       </c>
       <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
         <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
       </c>
       <c r="G14">
         <v>17794</v>
@@ -929,34 +800,25 @@
       <c r="H14">
         <v>0.711</v>
       </c>
-      <c r="I14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14">
-        <v>10005</v>
-      </c>
-      <c r="K14">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
         <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
       </c>
       <c r="D15">
         <v>10005</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G15">
         <v>3749</v>
@@ -964,49 +826,31 @@
       <c r="H15">
         <v>0.15</v>
       </c>
-      <c r="I15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15">
-        <v>10005</v>
-      </c>
-      <c r="K15">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
         <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
       </c>
       <c r="D16">
         <v>10005</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G16">
         <v>2908</v>
       </c>
       <c r="H16">
-        <v>0.116</v>
-      </c>
-      <c r="I16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16">
-        <v>10005</v>
-      </c>
-      <c r="K16">
-        <v>12.3</v>
+        <v>0.1159999999999999</v>
       </c>
     </row>
   </sheetData>
